--- a/Cols_draft_M5.xlsx
+++ b/Cols_draft_M5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/monicacella/Desktop/QLSC600D2_2025_M5A1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE88D6F2-96DD-194A-B87F-988495D871C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D43ACDD0-A87B-DA4D-8DD9-A51E51E478DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="880" yWindow="500" windowWidth="27920" windowHeight="17500" activeTab="1" xr2:uid="{36676770-CB25-F949-8228-BA136C80F5EB}"/>
+    <workbookView xWindow="2960" yWindow="620" windowWidth="24700" windowHeight="14900" activeTab="1" xr2:uid="{36676770-CB25-F949-8228-BA136C80F5EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Deadlines" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
   <si>
     <t>Link to article</t>
   </si>
@@ -118,13 +118,74 @@
   </si>
   <si>
     <t>Evaluation scoring tailored to each column criterium?</t>
+  </si>
+  <si>
+    <t>Cartography of opportunistic pathogens and antibiotic resistance genes in a tertiary hospital environment</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1038/s41591-020-0894-4</t>
+  </si>
+  <si>
+    <t>Monica Cella</t>
+  </si>
+  <si>
+    <t>Linking the resistome and plasmidome to the microbiome</t>
+  </si>
+  <si>
+    <t>https://www.nature.com/articles/s41396-019-0446-4</t>
+  </si>
+  <si>
+    <t>N/A (?)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="3" tint="0.499984740745262"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t>Add column for Journal name? How good is the literature review in the introduction? "Quality of experimental design" and "Description of methods" kind of overlap - merge? I think we should remove any mention of cost of equipment, that is a barrier to equity in research not reproducibility/replicability (discussion for another day).</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t xml:space="preserve">This paper is difficult to replicate because it is location and time specific (environmental surveillance) </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">How far-reaching are conclusions and is evidence provided to support these statements? Are too many assumptions made to reach a conclusion? </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t>This particular paper is difficult to replicate because it is location and time specific (and poorly designed)</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -181,6 +242,41 @@
       <u/>
       <sz val="16"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF0070C0"/>
+      <name val="Aptos Narrow (Body)"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow (Body)"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color theme="3" tint="0.499984740745262"/>
+      <name val="Aptos Narrow (Body)"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color theme="3" tint="0.499984740745262"/>
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
@@ -321,10 +417,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -362,6 +459,42 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -371,29 +504,9 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -803,14 +916,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{037553EA-793E-E147-BDF6-0B4A3FE59E4A}">
   <dimension ref="A1:M55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.6640625" customWidth="1"/>
-    <col min="2" max="2" width="29.1640625" customWidth="1"/>
+    <col min="2" max="2" width="40.83203125" customWidth="1"/>
     <col min="3" max="3" width="9" customWidth="1"/>
     <col min="4" max="4" width="7.6640625" customWidth="1"/>
     <col min="5" max="5" width="13.5" customWidth="1"/>
@@ -821,7 +934,7 @@
     <col min="10" max="10" width="14.1640625" customWidth="1"/>
     <col min="11" max="11" width="13.33203125" customWidth="1"/>
     <col min="12" max="12" width="14.1640625" customWidth="1"/>
-    <col min="13" max="13" width="49.5" customWidth="1"/>
+    <col min="13" max="13" width="101.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -838,29 +951,29 @@
       <c r="J1" s="3"/>
     </row>
     <row r="2" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="17" t="s">
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="18"/>
+      <c r="L2" s="30"/>
     </row>
     <row r="3" spans="1:13" s="1" customFormat="1" ht="58" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="31" t="s">
         <v>17</v>
       </c>
       <c r="F3" s="8" t="s">
@@ -878,21 +991,21 @@
       <c r="J3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="23" t="s">
+      <c r="K3" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="L3" s="23" t="s">
+      <c r="L3" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="25" t="s">
+      <c r="M3" s="27" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:13" s="1" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
       <c r="F4" s="7" t="s">
         <v>22</v>
       </c>
@@ -908,44 +1021,92 @@
       <c r="J4" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="26"/>
-    </row>
-    <row r="5" spans="1:13" s="1" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="28"/>
+    </row>
+    <row r="5" spans="1:13" s="1" customFormat="1" ht="61" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>1</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-    </row>
-    <row r="6" spans="1:13" s="1" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="18">
+        <v>2020</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="18">
+        <v>5</v>
+      </c>
+      <c r="G5" s="18">
+        <v>4</v>
+      </c>
+      <c r="H5" s="18">
+        <v>5</v>
+      </c>
+      <c r="I5" s="18">
+        <v>4</v>
+      </c>
+      <c r="J5" s="18">
+        <v>5</v>
+      </c>
+      <c r="K5" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="L5" s="18">
+        <v>5</v>
+      </c>
+      <c r="M5" s="19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" s="1" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <f>A5+1</f>
         <v>2</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
+      <c r="B6" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="18">
+        <v>2019</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="18">
+        <v>4</v>
+      </c>
+      <c r="G6" s="18">
+        <v>1</v>
+      </c>
+      <c r="H6" s="18">
+        <v>1</v>
+      </c>
+      <c r="I6" s="18">
+        <v>0</v>
+      </c>
+      <c r="J6" s="18">
+        <v>3</v>
+      </c>
+      <c r="K6" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="L6" s="18">
+        <v>1</v>
+      </c>
+      <c r="M6" s="21" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="7" spans="1:13" s="1" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
@@ -955,7 +1116,9 @@
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
+      <c r="E7" s="18" t="s">
+        <v>29</v>
+      </c>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
@@ -973,7 +1136,9 @@
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
+      <c r="E8" s="18" t="s">
+        <v>29</v>
+      </c>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
@@ -991,7 +1156,9 @@
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
+      <c r="E9" s="18" t="s">
+        <v>29</v>
+      </c>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
@@ -1814,16 +1981,19 @@
     <row r="55" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
     <mergeCell ref="M3:M4"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="C3:C4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="F2:J2"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="D5" r:id="rId1" xr:uid="{76023512-4294-824B-9C48-0092BD200719}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Cols_draft_M5.xlsx
+++ b/Cols_draft_M5.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dandantan/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meganng/Documents/GitHub/QLSC600D2_2025_M5A1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B598DB5-7172-CB4E-8277-4A7601830997}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15DEB719-7CAE-9244-B275-4CFD00EF2448}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16180" activeTab="1" xr2:uid="{36676770-CB25-F949-8228-BA136C80F5EB}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="43">
   <si>
     <t>Link to article</t>
   </si>
@@ -200,6 +200,9 @@
   </si>
   <si>
     <t>The code and data can be found in the original paper, the method is described clearly. The results obtained from the data are slightly different from the paper</t>
+  </si>
+  <si>
+    <t>Megan Ng</t>
   </si>
 </sst>
 </file>
@@ -940,8 +943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{037553EA-793E-E147-BDF6-0B4A3FE59E4A}">
   <dimension ref="A1:M55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B3" zoomScale="125" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="125" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1344,7 +1347,9 @@
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
+      <c r="E15" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
@@ -1362,7 +1367,9 @@
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
+      <c r="E16" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
@@ -1380,7 +1387,9 @@
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
+      <c r="E17" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
@@ -1398,7 +1407,9 @@
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
+      <c r="E18" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>

--- a/Cols_draft_M5.xlsx
+++ b/Cols_draft_M5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meganng/Documents/GitHub/QLSC600D2_2025_M5A1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15DEB719-7CAE-9244-B275-4CFD00EF2448}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2B48DB5-F3BA-FC46-BF3C-9E3857853611}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16180" activeTab="1" xr2:uid="{36676770-CB25-F949-8228-BA136C80F5EB}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{36676770-CB25-F949-8228-BA136C80F5EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Deadlines" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="45">
   <si>
     <t>Link to article</t>
   </si>
@@ -203,6 +203,12 @@
   </si>
   <si>
     <t>Megan Ng</t>
+  </si>
+  <si>
+    <t>Organizing principles of astrocytic nanoarchitecture in the mouse cerebral cortex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/36805126/ </t>
   </si>
 </sst>
 </file>
@@ -943,8 +949,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{037553EA-793E-E147-BDF6-0B4A3FE59E4A}">
   <dimension ref="A1:M55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="125" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1206,7 +1212,7 @@
       <c r="C10" s="18">
         <v>2022</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="17" t="s">
         <v>39</v>
       </c>
       <c r="E10" s="18" t="s">
@@ -1248,7 +1254,7 @@
       <c r="C11" s="22">
         <v>2021</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="17" t="s">
         <v>38</v>
       </c>
       <c r="E11" s="18" t="s">
@@ -1284,9 +1290,15 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
+      <c r="B12" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="6">
+        <v>2023</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>44</v>
+      </c>
       <c r="E12" s="18" t="s">
         <v>35</v>
       </c>
@@ -2082,6 +2094,9 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D5" r:id="rId1" xr:uid="{76023512-4294-824B-9C48-0092BD200719}"/>
+    <hyperlink ref="D12" r:id="rId2" xr:uid="{F5278718-A4B4-4240-985E-B0483DC8FE28}"/>
+    <hyperlink ref="D10" r:id="rId3" xr:uid="{D9D5E1C5-2E77-904A-AA9E-B48D428046B2}"/>
+    <hyperlink ref="D11" r:id="rId4" xr:uid="{05674F12-7BCD-F047-B51E-2A47BBB4405F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Cols_draft_M5.xlsx
+++ b/Cols_draft_M5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dandantan/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mcmasteru365-my.sharepoint.com/personal/hodginsl_mcmaster_ca/Documents/Documents/GradSchoolMaterial/Course Work/QLSC600/Module5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E85772B-03BE-C942-ACFA-49AF7840622D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="8_{EF314910-8CCC-4C86-A979-947FD3EBDC2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E3997589-C6C1-4ED3-9A3A-DEB6A95A60C7}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{36676770-CB25-F949-8228-BA136C80F5EB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{36676770-CB25-F949-8228-BA136C80F5EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Deadlines" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="47">
   <si>
     <t>Link to article</t>
   </si>
@@ -204,12 +204,51 @@
   <si>
     <t>The code and data can be found in the original paper, the method is described clearly. The results obtained from the data are slightly different from the paper</t>
   </si>
+  <si>
+    <t>Lydia Hodgins</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Single-molecule tracking reveals the functional allocation, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>in vivo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> interactions, and spatial organization of universal transcription factor NusG</t>
+    </r>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.molcel.2024.01.025</t>
+  </si>
+  <si>
+    <t>I left evaluating quality of experimental desing until the end because I felt that the points I was going to make in it fit better in the next three categories. When I returned to it I mostly reiterated the points I had made previously. I am also not sure how we are deciding the values to put int the replicability and reproducibility category - is it an average of the blue columns or just a general observation?</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="15">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -302,6 +341,19 @@
       <sz val="12"/>
       <color theme="3" tint="0.499984740745262"/>
       <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -498,6 +550,9 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -528,11 +583,8 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -875,12 +927,12 @@
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="14.83203125" customWidth="1"/>
+    <col min="1" max="1" width="14.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="46" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="21">
       <c r="A1" s="10" t="s">
         <v>13</v>
       </c>
@@ -889,7 +941,7 @@
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:5" ht="22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="21">
       <c r="A2" s="11" t="s">
         <v>14</v>
       </c>
@@ -898,7 +950,7 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" ht="22" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="21">
       <c r="A3" s="11" t="s">
         <v>15</v>
       </c>
@@ -907,7 +959,7 @@
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:5" ht="22" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="21">
       <c r="A4" s="11" t="s">
         <v>16</v>
       </c>
@@ -916,7 +968,7 @@
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:5" ht="22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="21">
       <c r="A5" s="11" t="s">
         <v>12</v>
       </c>
@@ -925,11 +977,11 @@
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:5" ht="22" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="21">
       <c r="A6" s="13"/>
       <c r="B6" s="13"/>
     </row>
-    <row r="7" spans="1:5" ht="22" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="21">
       <c r="A7" s="14" t="s">
         <v>9</v>
       </c>
@@ -946,28 +998,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{037553EA-793E-E147-BDF6-0B4A3FE59E4A}">
   <dimension ref="A1:M55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I3" zoomScale="125" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="79" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" customWidth="1"/>
-    <col min="2" max="2" width="40.83203125" customWidth="1"/>
+    <col min="1" max="1" width="3.69921875" customWidth="1"/>
+    <col min="2" max="2" width="40.796875" customWidth="1"/>
     <col min="3" max="3" width="9" customWidth="1"/>
-    <col min="4" max="4" width="7.6640625" customWidth="1"/>
+    <col min="4" max="4" width="7.69921875" customWidth="1"/>
     <col min="5" max="5" width="13.5" customWidth="1"/>
     <col min="6" max="6" width="16.5" customWidth="1"/>
-    <col min="7" max="7" width="25.6640625" customWidth="1"/>
+    <col min="7" max="7" width="25.69921875" customWidth="1"/>
     <col min="8" max="8" width="25.5" customWidth="1"/>
-    <col min="9" max="9" width="20.83203125" customWidth="1"/>
-    <col min="10" max="10" width="14.1640625" customWidth="1"/>
-    <col min="11" max="11" width="13.33203125" customWidth="1"/>
-    <col min="12" max="12" width="14.1640625" customWidth="1"/>
-    <col min="13" max="13" width="101.1640625" customWidth="1"/>
+    <col min="9" max="9" width="20.796875" customWidth="1"/>
+    <col min="10" max="10" width="14.19921875" customWidth="1"/>
+    <col min="11" max="11" width="13.296875" customWidth="1"/>
+    <col min="12" max="12" width="14.19921875" customWidth="1"/>
+    <col min="13" max="13" width="101.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" ht="30" customHeight="1">
       <c r="B1" s="4" t="s">
         <v>8</v>
       </c>
@@ -980,30 +1032,30 @@
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
     </row>
-    <row r="2" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F2" s="24" t="s">
+    <row r="2" spans="1:13" ht="27" customHeight="1">
+      <c r="F2" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="29" t="s">
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="30"/>
-    </row>
-    <row r="3" spans="1:13" s="1" customFormat="1" ht="58" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="22" t="s">
+      <c r="L2" s="31"/>
+    </row>
+    <row r="3" spans="1:13" s="1" customFormat="1" ht="58.05" customHeight="1">
+      <c r="B3" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="31" t="s">
+      <c r="E3" s="32" t="s">
         <v>17</v>
       </c>
       <c r="F3" s="8" t="s">
@@ -1021,21 +1073,21 @@
       <c r="J3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="25" t="s">
+      <c r="K3" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="L3" s="25" t="s">
+      <c r="L3" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="27" t="s">
+      <c r="M3" s="28" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="1" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
+    <row r="4" spans="1:13" s="1" customFormat="1" ht="40.049999999999997" customHeight="1">
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
       <c r="F4" s="7" t="s">
         <v>22</v>
       </c>
@@ -1051,11 +1103,11 @@
       <c r="J4" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K4" s="26"/>
-      <c r="L4" s="26"/>
-      <c r="M4" s="28"/>
-    </row>
-    <row r="5" spans="1:13" s="1" customFormat="1" ht="61" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="29"/>
+    </row>
+    <row r="5" spans="1:13" s="1" customFormat="1" ht="61.05" customHeight="1">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -1096,7 +1148,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="1" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" s="1" customFormat="1" ht="51" customHeight="1">
       <c r="A6" s="2">
         <f>A5+1</f>
         <v>2</v>
@@ -1138,7 +1190,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="1" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" s="1" customFormat="1" ht="22.95" customHeight="1">
       <c r="A7" s="2">
         <f t="shared" ref="A7:A54" si="0">A6+1</f>
         <v>3</v>
@@ -1158,7 +1210,7 @@
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
     </row>
-    <row r="8" spans="1:13" s="1" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" s="1" customFormat="1" ht="22.95" customHeight="1">
       <c r="A8" s="2">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1178,7 +1230,7 @@
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
     </row>
-    <row r="9" spans="1:13" s="1" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" s="1" customFormat="1" ht="22.95" customHeight="1">
       <c r="A9" s="2">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1198,12 +1250,12 @@
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
     </row>
-    <row r="10" spans="1:13" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="A10" s="2">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C10" s="18">
@@ -1215,32 +1267,32 @@
       <c r="E10" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="F10" s="32">
+      <c r="F10" s="22">
         <v>4</v>
       </c>
-      <c r="G10" s="32">
+      <c r="G10" s="22">
         <v>4</v>
       </c>
-      <c r="H10" s="32">
+      <c r="H10" s="22">
         <v>3</v>
       </c>
-      <c r="I10" s="32">
+      <c r="I10" s="22">
         <v>4</v>
       </c>
-      <c r="J10" s="32">
+      <c r="J10" s="22">
         <v>5</v>
       </c>
-      <c r="K10" s="32">
+      <c r="K10" s="22">
         <v>2</v>
       </c>
-      <c r="L10" s="32">
+      <c r="L10" s="22">
         <v>5</v>
       </c>
       <c r="M10" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="A11" s="2">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1248,7 +1300,7 @@
       <c r="B11" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="32">
+      <c r="C11" s="22">
         <v>2021</v>
       </c>
       <c r="D11" s="6" t="s">
@@ -1257,32 +1309,32 @@
       <c r="E11" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="F11" s="32">
+      <c r="F11" s="22">
         <v>5</v>
       </c>
-      <c r="G11" s="32">
+      <c r="G11" s="22">
         <v>2</v>
       </c>
-      <c r="H11" s="32">
+      <c r="H11" s="22">
         <v>4</v>
       </c>
-      <c r="I11" s="32" t="s">
+      <c r="I11" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="J11" s="32">
+      <c r="J11" s="22">
         <v>4</v>
       </c>
-      <c r="K11" s="32">
+      <c r="K11" s="22">
         <v>4</v>
       </c>
-      <c r="L11" s="32">
+      <c r="L11" s="22">
         <v>5</v>
       </c>
       <c r="M11" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="1" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" s="1" customFormat="1" ht="22.95" customHeight="1">
       <c r="A12" s="2">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1302,7 +1354,7 @@
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
     </row>
-    <row r="13" spans="1:13" s="1" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" s="1" customFormat="1" ht="22.95" customHeight="1">
       <c r="A13" s="2">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1322,7 +1374,7 @@
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
     </row>
-    <row r="14" spans="1:13" s="1" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" s="1" customFormat="1" ht="22.95" customHeight="1">
       <c r="A14" s="2">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1342,25 +1394,45 @@
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
     </row>
-    <row r="15" spans="1:13" s="1" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" s="1" customFormat="1" ht="22.95" customHeight="1">
       <c r="A15" s="2">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
+      <c r="B15" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="6">
+        <v>2024</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" s="22">
+        <v>5</v>
+      </c>
+      <c r="G15" s="22">
+        <v>5</v>
+      </c>
+      <c r="H15" s="22">
+        <v>5</v>
+      </c>
+      <c r="I15" s="22">
+        <v>4</v>
+      </c>
+      <c r="J15" s="22">
+        <v>3</v>
+      </c>
       <c r="K15" s="6"/>
       <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-    </row>
-    <row r="16" spans="1:13" s="1" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M15" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" s="1" customFormat="1" ht="22.95" customHeight="1">
       <c r="A16" s="2">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1368,7 +1440,9 @@
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
+      <c r="E16" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
@@ -1378,7 +1452,7 @@
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
     </row>
-    <row r="17" spans="1:13" s="1" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" s="1" customFormat="1" ht="22.95" customHeight="1">
       <c r="A17" s="2">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1386,7 +1460,9 @@
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
+      <c r="E17" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
@@ -1396,7 +1472,7 @@
       <c r="L17" s="6"/>
       <c r="M17" s="6"/>
     </row>
-    <row r="18" spans="1:13" s="1" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" s="1" customFormat="1" ht="22.95" customHeight="1">
       <c r="A18" s="2">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1404,7 +1480,9 @@
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
+      <c r="E18" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
@@ -1414,7 +1492,7 @@
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
     </row>
-    <row r="19" spans="1:13" s="1" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" s="1" customFormat="1" ht="22.95" customHeight="1">
       <c r="A19" s="2">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1422,7 +1500,9 @@
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
+      <c r="E19" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
@@ -1432,7 +1512,7 @@
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
     </row>
-    <row r="20" spans="1:13" s="1" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" s="1" customFormat="1" ht="22.95" customHeight="1">
       <c r="A20" s="2">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1450,7 +1530,7 @@
       <c r="L20" s="6"/>
       <c r="M20" s="6"/>
     </row>
-    <row r="21" spans="1:13" s="1" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" s="1" customFormat="1" ht="22.95" customHeight="1">
       <c r="A21" s="2">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1468,7 +1548,7 @@
       <c r="L21" s="6"/>
       <c r="M21" s="6"/>
     </row>
-    <row r="22" spans="1:13" s="1" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" s="1" customFormat="1" ht="22.95" customHeight="1">
       <c r="A22" s="2">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1486,7 +1566,7 @@
       <c r="L22" s="6"/>
       <c r="M22" s="6"/>
     </row>
-    <row r="23" spans="1:13" s="1" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" s="1" customFormat="1" ht="22.95" customHeight="1">
       <c r="A23" s="2">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1504,7 +1584,7 @@
       <c r="L23" s="6"/>
       <c r="M23" s="6"/>
     </row>
-    <row r="24" spans="1:13" s="1" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" s="1" customFormat="1" ht="22.95" customHeight="1">
       <c r="A24" s="2">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1522,7 +1602,7 @@
       <c r="L24" s="6"/>
       <c r="M24" s="6"/>
     </row>
-    <row r="25" spans="1:13" s="1" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" s="1" customFormat="1" ht="22.95" customHeight="1">
       <c r="A25" s="2">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1540,7 +1620,7 @@
       <c r="L25" s="6"/>
       <c r="M25" s="6"/>
     </row>
-    <row r="26" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" s="1" customFormat="1">
       <c r="A26" s="2">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -1558,7 +1638,7 @@
       <c r="L26" s="6"/>
       <c r="M26" s="6"/>
     </row>
-    <row r="27" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" s="1" customFormat="1">
       <c r="A27" s="2">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -1576,7 +1656,7 @@
       <c r="L27" s="6"/>
       <c r="M27" s="6"/>
     </row>
-    <row r="28" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" s="1" customFormat="1">
       <c r="A28" s="2">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -1594,7 +1674,7 @@
       <c r="L28" s="6"/>
       <c r="M28" s="6"/>
     </row>
-    <row r="29" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" s="1" customFormat="1">
       <c r="A29" s="2">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -1612,7 +1692,7 @@
       <c r="L29" s="6"/>
       <c r="M29" s="6"/>
     </row>
-    <row r="30" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" s="1" customFormat="1">
       <c r="A30" s="2">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -1630,7 +1710,7 @@
       <c r="L30" s="6"/>
       <c r="M30" s="6"/>
     </row>
-    <row r="31" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1">
       <c r="A31" s="2">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -1648,7 +1728,7 @@
       <c r="L31" s="6"/>
       <c r="M31" s="6"/>
     </row>
-    <row r="32" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" s="1" customFormat="1">
       <c r="A32" s="2">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -1666,7 +1746,7 @@
       <c r="L32" s="6"/>
       <c r="M32" s="6"/>
     </row>
-    <row r="33" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" s="1" customFormat="1">
       <c r="A33" s="2">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -1684,7 +1764,7 @@
       <c r="L33" s="6"/>
       <c r="M33" s="6"/>
     </row>
-    <row r="34" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" s="1" customFormat="1">
       <c r="A34" s="2">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -1702,7 +1782,7 @@
       <c r="L34" s="6"/>
       <c r="M34" s="6"/>
     </row>
-    <row r="35" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" s="1" customFormat="1">
       <c r="A35" s="2">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -1720,7 +1800,7 @@
       <c r="L35" s="6"/>
       <c r="M35" s="6"/>
     </row>
-    <row r="36" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" s="1" customFormat="1">
       <c r="A36" s="2">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -1738,7 +1818,7 @@
       <c r="L36" s="6"/>
       <c r="M36" s="6"/>
     </row>
-    <row r="37" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" s="1" customFormat="1">
       <c r="A37" s="2">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -1756,7 +1836,7 @@
       <c r="L37" s="6"/>
       <c r="M37" s="6"/>
     </row>
-    <row r="38" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" s="1" customFormat="1">
       <c r="A38" s="2">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -1774,7 +1854,7 @@
       <c r="L38" s="6"/>
       <c r="M38" s="6"/>
     </row>
-    <row r="39" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" s="1" customFormat="1">
       <c r="A39" s="2">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -1792,7 +1872,7 @@
       <c r="L39" s="6"/>
       <c r="M39" s="6"/>
     </row>
-    <row r="40" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" s="1" customFormat="1">
       <c r="A40" s="2">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -1810,7 +1890,7 @@
       <c r="L40" s="6"/>
       <c r="M40" s="6"/>
     </row>
-    <row r="41" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" s="1" customFormat="1">
       <c r="A41" s="2">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -1828,7 +1908,7 @@
       <c r="L41" s="6"/>
       <c r="M41" s="6"/>
     </row>
-    <row r="42" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" s="1" customFormat="1">
       <c r="A42" s="2">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -1846,7 +1926,7 @@
       <c r="L42" s="6"/>
       <c r="M42" s="6"/>
     </row>
-    <row r="43" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13" s="1" customFormat="1">
       <c r="A43" s="2">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -1864,7 +1944,7 @@
       <c r="L43" s="6"/>
       <c r="M43" s="6"/>
     </row>
-    <row r="44" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13" s="1" customFormat="1">
       <c r="A44" s="2">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -1882,7 +1962,7 @@
       <c r="L44" s="6"/>
       <c r="M44" s="6"/>
     </row>
-    <row r="45" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13" s="1" customFormat="1">
       <c r="A45" s="2">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -1900,7 +1980,7 @@
       <c r="L45" s="6"/>
       <c r="M45" s="6"/>
     </row>
-    <row r="46" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13" s="1" customFormat="1">
       <c r="A46" s="2">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -1918,7 +1998,7 @@
       <c r="L46" s="6"/>
       <c r="M46" s="6"/>
     </row>
-    <row r="47" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13" s="1" customFormat="1">
       <c r="A47" s="2">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -1936,7 +2016,7 @@
       <c r="L47" s="6"/>
       <c r="M47" s="6"/>
     </row>
-    <row r="48" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13" s="1" customFormat="1">
       <c r="A48" s="2">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -1954,7 +2034,7 @@
       <c r="L48" s="6"/>
       <c r="M48" s="6"/>
     </row>
-    <row r="49" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:13" s="1" customFormat="1">
       <c r="A49" s="2">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -1972,7 +2052,7 @@
       <c r="L49" s="6"/>
       <c r="M49" s="6"/>
     </row>
-    <row r="50" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:13" s="1" customFormat="1">
       <c r="A50" s="2">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -1990,7 +2070,7 @@
       <c r="L50" s="6"/>
       <c r="M50" s="6"/>
     </row>
-    <row r="51" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:13" s="1" customFormat="1">
       <c r="A51" s="2">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -2008,7 +2088,7 @@
       <c r="L51" s="6"/>
       <c r="M51" s="6"/>
     </row>
-    <row r="52" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:13" s="1" customFormat="1">
       <c r="A52" s="2">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -2026,7 +2106,7 @@
       <c r="L52" s="6"/>
       <c r="M52" s="6"/>
     </row>
-    <row r="53" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:13" s="1" customFormat="1">
       <c r="A53" s="2">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -2044,7 +2124,7 @@
       <c r="L53" s="6"/>
       <c r="M53" s="6"/>
     </row>
-    <row r="54" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:13" s="1" customFormat="1">
       <c r="A54" s="2">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -2062,7 +2142,7 @@
       <c r="L54" s="6"/>
       <c r="M54" s="6"/>
     </row>
-    <row r="55" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="55" spans="1:13" s="1" customFormat="1"/>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="B3:B4"/>

--- a/Cols_draft_M5.xlsx
+++ b/Cols_draft_M5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mcmasteru365-my.sharepoint.com/personal/hodginsl_mcmaster_ca/Documents/Documents/GradSchoolMaterial/Course Work/QLSC600/Module5/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dandantan/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="8_{EF314910-8CCC-4C86-A979-947FD3EBDC2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E3997589-C6C1-4ED3-9A3A-DEB6A95A60C7}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E85772B-03BE-C942-ACFA-49AF7840622D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{36676770-CB25-F949-8228-BA136C80F5EB}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{36676770-CB25-F949-8228-BA136C80F5EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Deadlines" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="43">
   <si>
     <t>Link to article</t>
   </si>
@@ -204,51 +204,12 @@
   <si>
     <t>The code and data can be found in the original paper, the method is described clearly. The results obtained from the data are slightly different from the paper</t>
   </si>
-  <si>
-    <t>Lydia Hodgins</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Single-molecule tracking reveals the functional allocation, </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>in vivo</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> interactions, and spatial organization of universal transcription factor NusG</t>
-    </r>
-  </si>
-  <si>
-    <t>https://doi.org/10.1016/j.molcel.2024.01.025</t>
-  </si>
-  <si>
-    <t>I left evaluating quality of experimental desing until the end because I felt that the points I was going to make in it fit better in the next three categories. When I returned to it I mostly reiterated the points I had made previously. I am also not sure how we are deciding the values to put int the replicability and reproducibility category - is it an average of the blue columns or just a general observation?</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -341,19 +302,6 @@
       <sz val="12"/>
       <color theme="3" tint="0.499984740745262"/>
       <name val="Aptos Narrow"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="12"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -550,41 +498,41 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -927,12 +875,12 @@
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.796875" customWidth="1"/>
+    <col min="1" max="1" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="21">
+    <row r="1" spans="1:5" ht="46" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>13</v>
       </c>
@@ -941,7 +889,7 @@
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:5" ht="21">
+    <row r="2" spans="1:5" ht="22" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>14</v>
       </c>
@@ -950,7 +898,7 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" ht="21">
+    <row r="3" spans="1:5" ht="22" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>15</v>
       </c>
@@ -959,7 +907,7 @@
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:5" ht="21">
+    <row r="4" spans="1:5" ht="22" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>16</v>
       </c>
@@ -968,7 +916,7 @@
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:5" ht="21">
+    <row r="5" spans="1:5" ht="22" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>12</v>
       </c>
@@ -977,11 +925,11 @@
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:5" ht="21">
+    <row r="6" spans="1:5" ht="22" x14ac:dyDescent="0.3">
       <c r="A6" s="13"/>
       <c r="B6" s="13"/>
     </row>
-    <row r="7" spans="1:5" ht="21">
+    <row r="7" spans="1:5" ht="22" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
         <v>9</v>
       </c>
@@ -998,28 +946,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{037553EA-793E-E147-BDF6-0B4A3FE59E4A}">
   <dimension ref="A1:M55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="79" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+    <sheetView tabSelected="1" topLeftCell="I3" zoomScale="125" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.69921875" customWidth="1"/>
-    <col min="2" max="2" width="40.796875" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" customWidth="1"/>
+    <col min="2" max="2" width="40.83203125" customWidth="1"/>
     <col min="3" max="3" width="9" customWidth="1"/>
-    <col min="4" max="4" width="7.69921875" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" customWidth="1"/>
     <col min="5" max="5" width="13.5" customWidth="1"/>
     <col min="6" max="6" width="16.5" customWidth="1"/>
-    <col min="7" max="7" width="25.69921875" customWidth="1"/>
+    <col min="7" max="7" width="25.6640625" customWidth="1"/>
     <col min="8" max="8" width="25.5" customWidth="1"/>
-    <col min="9" max="9" width="20.796875" customWidth="1"/>
-    <col min="10" max="10" width="14.19921875" customWidth="1"/>
-    <col min="11" max="11" width="13.296875" customWidth="1"/>
-    <col min="12" max="12" width="14.19921875" customWidth="1"/>
-    <col min="13" max="13" width="101.19921875" customWidth="1"/>
+    <col min="9" max="9" width="20.83203125" customWidth="1"/>
+    <col min="10" max="10" width="14.1640625" customWidth="1"/>
+    <col min="11" max="11" width="13.33203125" customWidth="1"/>
+    <col min="12" max="12" width="14.1640625" customWidth="1"/>
+    <col min="13" max="13" width="101.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="30" customHeight="1">
+    <row r="1" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="4" t="s">
         <v>8</v>
       </c>
@@ -1032,30 +980,30 @@
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
     </row>
-    <row r="2" spans="1:13" ht="27" customHeight="1">
-      <c r="F2" s="25" t="s">
+    <row r="2" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F2" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="30" t="s">
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="31"/>
-    </row>
-    <row r="3" spans="1:13" s="1" customFormat="1" ht="58.05" customHeight="1">
-      <c r="B3" s="23" t="s">
+      <c r="L2" s="30"/>
+    </row>
+    <row r="3" spans="1:13" s="1" customFormat="1" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="32" t="s">
+      <c r="E3" s="31" t="s">
         <v>17</v>
       </c>
       <c r="F3" s="8" t="s">
@@ -1073,21 +1021,21 @@
       <c r="J3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="26" t="s">
+      <c r="K3" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="L3" s="26" t="s">
+      <c r="L3" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="28" t="s">
+      <c r="M3" s="27" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="1" customFormat="1" ht="40.049999999999997" customHeight="1">
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
+    <row r="4" spans="1:13" s="1" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
       <c r="F4" s="7" t="s">
         <v>22</v>
       </c>
@@ -1103,11 +1051,11 @@
       <c r="J4" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K4" s="27"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="29"/>
-    </row>
-    <row r="5" spans="1:13" s="1" customFormat="1" ht="61.05" customHeight="1">
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="28"/>
+    </row>
+    <row r="5" spans="1:13" s="1" customFormat="1" ht="61" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -1148,7 +1096,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="1" customFormat="1" ht="51" customHeight="1">
+    <row r="6" spans="1:13" s="1" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <f>A5+1</f>
         <v>2</v>
@@ -1190,7 +1138,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="1" customFormat="1" ht="22.95" customHeight="1">
+    <row r="7" spans="1:13" s="1" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <f t="shared" ref="A7:A54" si="0">A6+1</f>
         <v>3</v>
@@ -1210,7 +1158,7 @@
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
     </row>
-    <row r="8" spans="1:13" s="1" customFormat="1" ht="22.95" customHeight="1">
+    <row r="8" spans="1:13" s="1" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1230,7 +1178,7 @@
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
     </row>
-    <row r="9" spans="1:13" s="1" customFormat="1" ht="22.95" customHeight="1">
+    <row r="9" spans="1:13" s="1" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1250,12 +1198,12 @@
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
     </row>
-    <row r="10" spans="1:13" s="1" customFormat="1" ht="30" customHeight="1">
+    <row r="10" spans="1:13" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="33" t="s">
         <v>36</v>
       </c>
       <c r="C10" s="18">
@@ -1267,32 +1215,32 @@
       <c r="E10" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="F10" s="22">
+      <c r="F10" s="32">
         <v>4</v>
       </c>
-      <c r="G10" s="22">
+      <c r="G10" s="32">
         <v>4</v>
       </c>
-      <c r="H10" s="22">
+      <c r="H10" s="32">
         <v>3</v>
       </c>
-      <c r="I10" s="22">
+      <c r="I10" s="32">
         <v>4</v>
       </c>
-      <c r="J10" s="22">
+      <c r="J10" s="32">
         <v>5</v>
       </c>
-      <c r="K10" s="22">
+      <c r="K10" s="32">
         <v>2</v>
       </c>
-      <c r="L10" s="22">
+      <c r="L10" s="32">
         <v>5</v>
       </c>
       <c r="M10" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="1" customFormat="1" ht="30" customHeight="1">
+    <row r="11" spans="1:13" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1300,7 +1248,7 @@
       <c r="B11" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="22">
+      <c r="C11" s="32">
         <v>2021</v>
       </c>
       <c r="D11" s="6" t="s">
@@ -1309,32 +1257,32 @@
       <c r="E11" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="F11" s="22">
+      <c r="F11" s="32">
         <v>5</v>
       </c>
-      <c r="G11" s="22">
+      <c r="G11" s="32">
         <v>2</v>
       </c>
-      <c r="H11" s="22">
+      <c r="H11" s="32">
         <v>4</v>
       </c>
-      <c r="I11" s="22" t="s">
+      <c r="I11" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="J11" s="22">
+      <c r="J11" s="32">
         <v>4</v>
       </c>
-      <c r="K11" s="22">
+      <c r="K11" s="32">
         <v>4</v>
       </c>
-      <c r="L11" s="22">
+      <c r="L11" s="32">
         <v>5</v>
       </c>
       <c r="M11" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="1" customFormat="1" ht="22.95" customHeight="1">
+    <row r="12" spans="1:13" s="1" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1354,7 +1302,7 @@
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
     </row>
-    <row r="13" spans="1:13" s="1" customFormat="1" ht="22.95" customHeight="1">
+    <row r="13" spans="1:13" s="1" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1374,7 +1322,7 @@
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
     </row>
-    <row r="14" spans="1:13" s="1" customFormat="1" ht="22.95" customHeight="1">
+    <row r="14" spans="1:13" s="1" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1394,45 +1342,25 @@
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
     </row>
-    <row r="15" spans="1:13" s="1" customFormat="1" ht="22.95" customHeight="1">
+    <row r="15" spans="1:13" s="1" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B15" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" s="6">
-        <v>2024</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="F15" s="22">
-        <v>5</v>
-      </c>
-      <c r="G15" s="22">
-        <v>5</v>
-      </c>
-      <c r="H15" s="22">
-        <v>5</v>
-      </c>
-      <c r="I15" s="22">
-        <v>4</v>
-      </c>
-      <c r="J15" s="22">
-        <v>3</v>
-      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
       <c r="K15" s="6"/>
       <c r="L15" s="6"/>
-      <c r="M15" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" s="1" customFormat="1" ht="22.95" customHeight="1">
+      <c r="M15" s="6"/>
+    </row>
+    <row r="16" spans="1:13" s="1" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1440,9 +1368,7 @@
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
-      <c r="E16" s="6" t="s">
-        <v>43</v>
-      </c>
+      <c r="E16" s="6"/>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
@@ -1452,7 +1378,7 @@
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
     </row>
-    <row r="17" spans="1:13" s="1" customFormat="1" ht="22.95" customHeight="1">
+    <row r="17" spans="1:13" s="1" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1460,9 +1386,7 @@
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
-      <c r="E17" s="6" t="s">
-        <v>43</v>
-      </c>
+      <c r="E17" s="6"/>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
@@ -1472,7 +1396,7 @@
       <c r="L17" s="6"/>
       <c r="M17" s="6"/>
     </row>
-    <row r="18" spans="1:13" s="1" customFormat="1" ht="22.95" customHeight="1">
+    <row r="18" spans="1:13" s="1" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1480,9 +1404,7 @@
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
-      <c r="E18" s="6" t="s">
-        <v>43</v>
-      </c>
+      <c r="E18" s="6"/>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
@@ -1492,7 +1414,7 @@
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
     </row>
-    <row r="19" spans="1:13" s="1" customFormat="1" ht="22.95" customHeight="1">
+    <row r="19" spans="1:13" s="1" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1500,9 +1422,7 @@
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
-      <c r="E19" s="6" t="s">
-        <v>43</v>
-      </c>
+      <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
@@ -1512,7 +1432,7 @@
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
     </row>
-    <row r="20" spans="1:13" s="1" customFormat="1" ht="22.95" customHeight="1">
+    <row r="20" spans="1:13" s="1" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1530,7 +1450,7 @@
       <c r="L20" s="6"/>
       <c r="M20" s="6"/>
     </row>
-    <row r="21" spans="1:13" s="1" customFormat="1" ht="22.95" customHeight="1">
+    <row r="21" spans="1:13" s="1" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1548,7 +1468,7 @@
       <c r="L21" s="6"/>
       <c r="M21" s="6"/>
     </row>
-    <row r="22" spans="1:13" s="1" customFormat="1" ht="22.95" customHeight="1">
+    <row r="22" spans="1:13" s="1" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1566,7 +1486,7 @@
       <c r="L22" s="6"/>
       <c r="M22" s="6"/>
     </row>
-    <row r="23" spans="1:13" s="1" customFormat="1" ht="22.95" customHeight="1">
+    <row r="23" spans="1:13" s="1" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1584,7 +1504,7 @@
       <c r="L23" s="6"/>
       <c r="M23" s="6"/>
     </row>
-    <row r="24" spans="1:13" s="1" customFormat="1" ht="22.95" customHeight="1">
+    <row r="24" spans="1:13" s="1" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1602,7 +1522,7 @@
       <c r="L24" s="6"/>
       <c r="M24" s="6"/>
     </row>
-    <row r="25" spans="1:13" s="1" customFormat="1" ht="22.95" customHeight="1">
+    <row r="25" spans="1:13" s="1" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1620,7 +1540,7 @@
       <c r="L25" s="6"/>
       <c r="M25" s="6"/>
     </row>
-    <row r="26" spans="1:13" s="1" customFormat="1">
+    <row r="26" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -1638,7 +1558,7 @@
       <c r="L26" s="6"/>
       <c r="M26" s="6"/>
     </row>
-    <row r="27" spans="1:13" s="1" customFormat="1">
+    <row r="27" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -1656,7 +1576,7 @@
       <c r="L27" s="6"/>
       <c r="M27" s="6"/>
     </row>
-    <row r="28" spans="1:13" s="1" customFormat="1">
+    <row r="28" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -1674,7 +1594,7 @@
       <c r="L28" s="6"/>
       <c r="M28" s="6"/>
     </row>
-    <row r="29" spans="1:13" s="1" customFormat="1">
+    <row r="29" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -1692,7 +1612,7 @@
       <c r="L29" s="6"/>
       <c r="M29" s="6"/>
     </row>
-    <row r="30" spans="1:13" s="1" customFormat="1">
+    <row r="30" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -1710,7 +1630,7 @@
       <c r="L30" s="6"/>
       <c r="M30" s="6"/>
     </row>
-    <row r="31" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1">
+    <row r="31" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -1728,7 +1648,7 @@
       <c r="L31" s="6"/>
       <c r="M31" s="6"/>
     </row>
-    <row r="32" spans="1:13" s="1" customFormat="1">
+    <row r="32" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -1746,7 +1666,7 @@
       <c r="L32" s="6"/>
       <c r="M32" s="6"/>
     </row>
-    <row r="33" spans="1:13" s="1" customFormat="1">
+    <row r="33" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -1764,7 +1684,7 @@
       <c r="L33" s="6"/>
       <c r="M33" s="6"/>
     </row>
-    <row r="34" spans="1:13" s="1" customFormat="1">
+    <row r="34" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -1782,7 +1702,7 @@
       <c r="L34" s="6"/>
       <c r="M34" s="6"/>
     </row>
-    <row r="35" spans="1:13" s="1" customFormat="1">
+    <row r="35" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -1800,7 +1720,7 @@
       <c r="L35" s="6"/>
       <c r="M35" s="6"/>
     </row>
-    <row r="36" spans="1:13" s="1" customFormat="1">
+    <row r="36" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -1818,7 +1738,7 @@
       <c r="L36" s="6"/>
       <c r="M36" s="6"/>
     </row>
-    <row r="37" spans="1:13" s="1" customFormat="1">
+    <row r="37" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -1836,7 +1756,7 @@
       <c r="L37" s="6"/>
       <c r="M37" s="6"/>
     </row>
-    <row r="38" spans="1:13" s="1" customFormat="1">
+    <row r="38" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -1854,7 +1774,7 @@
       <c r="L38" s="6"/>
       <c r="M38" s="6"/>
     </row>
-    <row r="39" spans="1:13" s="1" customFormat="1">
+    <row r="39" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -1872,7 +1792,7 @@
       <c r="L39" s="6"/>
       <c r="M39" s="6"/>
     </row>
-    <row r="40" spans="1:13" s="1" customFormat="1">
+    <row r="40" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -1890,7 +1810,7 @@
       <c r="L40" s="6"/>
       <c r="M40" s="6"/>
     </row>
-    <row r="41" spans="1:13" s="1" customFormat="1">
+    <row r="41" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -1908,7 +1828,7 @@
       <c r="L41" s="6"/>
       <c r="M41" s="6"/>
     </row>
-    <row r="42" spans="1:13" s="1" customFormat="1">
+    <row r="42" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -1926,7 +1846,7 @@
       <c r="L42" s="6"/>
       <c r="M42" s="6"/>
     </row>
-    <row r="43" spans="1:13" s="1" customFormat="1">
+    <row r="43" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -1944,7 +1864,7 @@
       <c r="L43" s="6"/>
       <c r="M43" s="6"/>
     </row>
-    <row r="44" spans="1:13" s="1" customFormat="1">
+    <row r="44" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -1962,7 +1882,7 @@
       <c r="L44" s="6"/>
       <c r="M44" s="6"/>
     </row>
-    <row r="45" spans="1:13" s="1" customFormat="1">
+    <row r="45" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -1980,7 +1900,7 @@
       <c r="L45" s="6"/>
       <c r="M45" s="6"/>
     </row>
-    <row r="46" spans="1:13" s="1" customFormat="1">
+    <row r="46" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -1998,7 +1918,7 @@
       <c r="L46" s="6"/>
       <c r="M46" s="6"/>
     </row>
-    <row r="47" spans="1:13" s="1" customFormat="1">
+    <row r="47" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -2016,7 +1936,7 @@
       <c r="L47" s="6"/>
       <c r="M47" s="6"/>
     </row>
-    <row r="48" spans="1:13" s="1" customFormat="1">
+    <row r="48" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -2034,7 +1954,7 @@
       <c r="L48" s="6"/>
       <c r="M48" s="6"/>
     </row>
-    <row r="49" spans="1:13" s="1" customFormat="1">
+    <row r="49" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -2052,7 +1972,7 @@
       <c r="L49" s="6"/>
       <c r="M49" s="6"/>
     </row>
-    <row r="50" spans="1:13" s="1" customFormat="1">
+    <row r="50" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -2070,7 +1990,7 @@
       <c r="L50" s="6"/>
       <c r="M50" s="6"/>
     </row>
-    <row r="51" spans="1:13" s="1" customFormat="1">
+    <row r="51" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -2088,7 +2008,7 @@
       <c r="L51" s="6"/>
       <c r="M51" s="6"/>
     </row>
-    <row r="52" spans="1:13" s="1" customFormat="1">
+    <row r="52" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -2106,7 +2026,7 @@
       <c r="L52" s="6"/>
       <c r="M52" s="6"/>
     </row>
-    <row r="53" spans="1:13" s="1" customFormat="1">
+    <row r="53" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -2124,7 +2044,7 @@
       <c r="L53" s="6"/>
       <c r="M53" s="6"/>
     </row>
-    <row r="54" spans="1:13" s="1" customFormat="1">
+    <row r="54" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -2142,7 +2062,7 @@
       <c r="L54" s="6"/>
       <c r="M54" s="6"/>
     </row>
-    <row r="55" spans="1:13" s="1" customFormat="1"/>
+    <row r="55" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="B3:B4"/>
